--- a/biology/Médecine/Faculté_de_médecine_et_de_pharmacie_de_Casablanca/Faculté_de_médecine_et_de_pharmacie_de_Casablanca.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_et_de_pharmacie_de_Casablanca/Faculté_de_médecine_et_de_pharmacie_de_Casablanca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Casablanca</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Casablanca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté de pharmacie et de médecine de Casablanca (FMPC) est une faculté marocaine de médecine publique située à Casablanca. Elle est affiliée à l'université Hassan II de Casablanca.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Casablanca</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Casablanca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Locaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La faculté est d'une superficie de 6 hectares, qui comprend notamment[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faculté est d'une superficie de 6 hectares, qui comprend notamment:
 Des locaux administratifs : décanat, secrétariat général, services administratifs.
 Des locaux pour l’enseignement : amphithéâtres d’une capacité moyenne de 500 places (Errazzi, Ibn Nafiss, Ibn Sina, Ibn Toufail), salles pour l’enseignement dirigé (20 salles), salles pour les travaux pratiques (20 salles), amphithéâtres pour les thèses et formations (Jamila Hachim, Jawad El Jai, Ibn Rochd).
 Des laboratoires (anatomie, anatomie pathologie, biochimie, biophysique, biostatiques et épidémiologie, hématologie, histologie, immunologie, microbiologie, parasitologie, pharmacologie et physiologie).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Casablanca</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Casablanca</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Cursus pharmaceutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formation de pharmaceutique comprend 41 modules au total dont 3 essentiellement des stages durant la 4ème année, qui inclut : la chimie analytique, AHE, pharmacie galénique, chimie thérapeutique, pharmacologie générale et médecine sociale, physiologie, cytoBM, biophysique, biochimie métabolique, immunologie, toxicologie, parasitologie, hématologie, pharmacognosie, droit pharmaceutique, nutrition, sémiologie médicale etc.[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation de pharmaceutique comprend 41 modules au total dont 3 essentiellement des stages durant la 4ème année, qui inclut : la chimie analytique, AHE, pharmacie galénique, chimie thérapeutique, pharmacologie générale et médecine sociale, physiologie, cytoBM, biophysique, biochimie métabolique, immunologie, toxicologie, parasitologie, hématologie, pharmacognosie, droit pharmaceutique, nutrition, sémiologie médicale etc.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Casablanca</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Casablanca</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Cursus médical</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplôme de médecine générale : 6 ans
 Premier cycle (première et deuxième année) : formation théorique.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Casablanca</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Casablanca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Faculté est accessible par transports via les lignes de bus L006 et L067 aux arrêts Tariq Bnou Zyad et Faculté Médecine, L038 à l'arrêt Institut Pasteur, L038 L051 L063 L097 L97B L143 à l'arrêt Lycée Lahlou. 
 Par tramway avec la ligne 1 à l'arrêt Faculté de Médecine.
